--- a/report.xlsx
+++ b/report.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Найменування
 спеціальностей</t>
@@ -78,13 +78,22 @@
 (з суми граф
 1 та 2)</t>
   </si>
+  <si>
+    <t>А</t>
+  </si>
+  <si>
+    <t>Б</t>
+  </si>
+  <si>
+    <t>В</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -93,11 +102,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <sz val="8.0"/>
+      <name val="Times New Roman"/>
+      <sz val="7.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="7.0"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -121,6 +134,23 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill>
+        <bgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="64"/>
+        <bgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="64"/>
+        <bgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="61">
     <border>
@@ -658,7 +688,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" indent="0" textRotation="0" vertical="bottom" wrapText="false"/>
@@ -704,26 +734,29 @@
       <alignment horizontal="general" indent="0" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment vertical="center" horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="22" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="44" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="44" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="60" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="60" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -739,53 +772,53 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="28.0" customWidth="true"/>
-    <col min="2" max="2" width="11.0" customWidth="true"/>
-    <col min="3" max="3" width="9.0" customWidth="true"/>
-    <col min="4" max="4" width="14.0" customWidth="true"/>
-    <col min="5" max="5" width="14.0" customWidth="true"/>
-    <col min="6" max="6" width="10.0" customWidth="true"/>
+    <col min="1" max="1" width="27.0" customWidth="true"/>
+    <col min="2" max="2" width="8.0" customWidth="true"/>
+    <col min="3" max="3" width="6.0" customWidth="true"/>
+    <col min="4" max="4" width="10.0" customWidth="true"/>
+    <col min="5" max="5" width="10.0" customWidth="true"/>
+    <col min="6" max="6" width="9.0" customWidth="true"/>
     <col min="8" max="8" width="10.0" customWidth="true"/>
-    <col min="7" max="7" width="10.0" customWidth="true"/>
+    <col min="7" max="7" width="9.0" customWidth="true"/>
     <col min="9" max="9" width="10.0" customWidth="true"/>
     <col min="10" max="10" width="11.0" customWidth="true"/>
     <col min="11" max="11" width="11.0" customWidth="true"/>
-    <col min="12" max="12" width="11.0" customWidth="true"/>
-    <col min="13" max="13" width="11.0" customWidth="true"/>
-    <col min="14" max="14" width="13.0" customWidth="true"/>
+    <col min="12" max="12" width="10.0" customWidth="true"/>
+    <col min="13" max="13" width="10.0" customWidth="true"/>
+    <col min="14" max="14" width="11.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="30.0" customHeight="true">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="9"/>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="17" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
       <c r="I1" s="9"/>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="17" t="s">
         <v>10</v>
       </c>
       <c r="K1" s="9"/>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="16" t="s">
         <v>13</v>
       </c>
     </row>
@@ -793,24 +826,24 @@
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="17" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="9"/>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="17" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="9"/>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="16" t="s">
         <v>7</v>
       </c>
       <c r="L2" s="5"/>
@@ -823,16 +856,16 @@
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="18" t="s">
         <v>9</v>
       </c>
       <c r="J3" s="6"/>
@@ -841,7 +874,50 @@
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
     </row>
-    <row r="4"/>
+    <row r="4">
+      <c r="A4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E4" s="13" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F4" s="13" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G4" s="13" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H4" s="13" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I4" s="13" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="J4" s="13" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="K4" s="13" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="L4" s="13" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="M4" s="13" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="N4" s="13" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:A3"/>
